--- a/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
+++ b/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="645" windowWidth="16935" windowHeight="6855"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Projekt" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>kostenTraeger</t>
   </si>
@@ -99,73 +102,411 @@
   </si>
   <si>
     <t>SN EN 12350-8</t>
+  </si>
+  <si>
+    <t>bericht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="19" max="19" width="53.71"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
@@ -179,25 +520,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="R2" s="1">
-        <v>13400.0</v>
+        <v>13400</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R3" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R4" s="1">
-        <v>13412.0</v>
+        <v>13412</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>15</v>
@@ -206,14 +562,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R6" s="1">
-        <v>13414.0</v>
+        <v>13414</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>19</v>
@@ -222,19 +578,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R9" s="1">
-        <v>13416.0</v>
+        <v>13416</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>24</v>
@@ -243,9 +599,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R10" s="1">
-        <v>13418.0</v>
+        <v>13418</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>25</v>
@@ -254,9 +610,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R11" s="1">
-        <v>13421.0</v>
+        <v>13421</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>27</v>
@@ -266,21 +622,23 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="61.86"/>
+    <col min="4" max="4" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -303,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -327,6 +685,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
+++ b/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
@@ -15,7 +15,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="193">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Tunnel</t>
+  </si>
+  <si>
+    <t>Albatunnel ARGE NAT II, Preda</t>
+  </si>
+  <si>
+    <t>kostenTraeger</t>
+  </si>
   <si>
     <t>code</t>
   </si>
@@ -23,60 +38,54 @@
     <t>discriminator</t>
   </si>
   <si>
+    <t>projektLeiter</t>
+  </si>
+  <si>
+    <t>parentCode</t>
+  </si>
+  <si>
+    <t>projektNummer</t>
+  </si>
+  <si>
+    <t>auftraggeber</t>
+  </si>
+  <si>
+    <t>rechnung</t>
+  </si>
+  <si>
+    <t>versandRechnung</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
+    <t>bericht</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>6310;Flums</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>priceAufAnfrage</t>
+  </si>
+  <si>
     <t>norm</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>kostenTraeger</t>
-  </si>
-  <si>
-    <t>projektLeiter</t>
-  </si>
-  <si>
-    <t>projektNummer</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>auftraggeber</t>
-  </si>
-  <si>
-    <t>rechnung</t>
-  </si>
-  <si>
-    <t>Tunnel</t>
-  </si>
-  <si>
-    <t>versandRechnung</t>
-  </si>
-  <si>
-    <t>Albatunnel ARGE NAT II, Preda</t>
-  </si>
-  <si>
-    <t>bericht</t>
-  </si>
-  <si>
-    <t>6310;Flums</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>50 L10102 0005</t>
   </si>
   <si>
     <t>Anliker AG Bauunternehmung; John Doe; Meirhoeflissasse 18, 6021 Emmenbruecke</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>def</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
     <t>ARGET NAT II; Marcel Kaeufeler; Preda, 7482 Berguen</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Frischbetonpruefungen</t>
   </si>
   <si>
@@ -131,12 +137,60 @@
     <t>SN EN 12350-8</t>
   </si>
   <si>
+    <t>L-Box Prufun von SVB/SCC</t>
+  </si>
+  <si>
+    <t>SN EN 12350-10</t>
+  </si>
+  <si>
+    <t>Sedimentationsstabilitat (Siebversuch) von SVB/SCC</t>
+  </si>
+  <si>
+    <t>SN EN 12350-11</t>
+  </si>
+  <si>
+    <t>Auslauftrichterversuch von SVB/SCC</t>
+  </si>
+  <si>
+    <t>SN EN 12350-9</t>
+  </si>
+  <si>
+    <t>Entmischungsmass</t>
+  </si>
+  <si>
+    <t>EMPA-Richtlinie</t>
+  </si>
+  <si>
+    <t>Frischbetonkontrolle (Wassergehat, Konsistenz, Luftgehalt und Rohdichte) pro Frischbetonkontrolle, exkl, Wartezeit</t>
+  </si>
+  <si>
+    <t>Frischbetonkontrolle SVB/SCC (Wassergehat, Konsistenz, Luftgehalt und Rohdichte) pro Frischbetonkontrolle, exkl, Wartezeit</t>
+  </si>
+  <si>
+    <t>Einsatz- und Baustellenglobalen</t>
+  </si>
+  <si>
+    <t>An- und Ruckfahrt inkl. Gerate</t>
+  </si>
+  <si>
+    <t>An- und Ruckfahrt inkl. Gerate, pro 10km Einsatzdistanz</t>
+  </si>
+  <si>
+    <t>Baustellenprasenzzeit pro Stunder inkl Gerate</t>
+  </si>
+  <si>
+    <t>Warterzeit pro Stunde</t>
+  </si>
+  <si>
     <t>Scalungsmiet 150er Wuerfel bis 6 Stk ie Einsatz</t>
   </si>
   <si>
     <t>Ausschalen 150er Wuerfel bis 6 Stk ie Einstaz</t>
   </si>
   <si>
+    <t>Arbeitsanweisung Seite 1/10 10 110 / 12 110 Würfeldruckfestigkeit</t>
+  </si>
+  <si>
     <t>Einsatzbauschalem ab Flums</t>
   </si>
   <si>
@@ -156,9 +210,6 @@
   </si>
   <si>
     <t>ME Messungen &gt;=3 Messungen je Einsatz, je Stk</t>
-  </si>
-  <si>
-    <t>Arbeitsanweisung Seite 1/10 10 110 / 12 110 Würfeldruckfestigkeit</t>
   </si>
   <si>
     <t>10 110 / 12 110 WÜRFELDRUCKFESTIGKEIT</t>
@@ -703,13 +754,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -718,10 +769,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -732,10 +783,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -745,13 +796,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -767,37 +818,46 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="16.43"/>
-    <col customWidth="1" min="3" max="3" width="57.0"/>
-    <col customWidth="1" min="19" max="19" width="53.71"/>
+    <col customWidth="1" min="3" max="3" width="13.71"/>
+    <col customWidth="1" min="4" max="4" width="107.0"/>
+    <col customWidth="1" min="6" max="7" width="17.14"/>
+    <col customWidth="1" min="21" max="21" width="53.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>13400.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +865,13 @@
         <v>13410.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13400.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -816,18 +879,26 @@
         <v>13412.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13410.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="1" t="s">
-        <v>28</v>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -835,23 +906,32 @@
         <v>13414.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13410.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="1" t="s">
-        <v>31</v>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="1" t="s">
-        <v>32</v>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -859,13 +939,20 @@
         <v>13416.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13410.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -873,13 +960,20 @@
         <v>13418.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13410.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E10" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -887,128 +981,346 @@
         <v>13421.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13410.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E11" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>11642.0</v>
+        <v>13423.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.0</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13410.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>11652.0</v>
+        <v>13424.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.0</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13410.0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1">
-        <v>45.0</v>
+      <c r="A14" s="1">
+        <v>13426.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13410.0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1">
-        <v>75.0</v>
+      <c r="A15" s="1">
+        <v>13425.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13410.0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>13443.0</v>
+        <v>13430.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13410.0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E16" s="1">
-        <v>130.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>11661.0</v>
+        <v>13434.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13410.0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="1">
-        <v>70.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>11672.0</v>
+        <v>13440.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1">
-        <v>150.0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13400.0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>22386.0</v>
+        <v>13441.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.0</v>
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13440.0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
+        <v>13442.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13440.0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>13443.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13440.0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>13445.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>13440.0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="1">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>11642.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>11652.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>13443.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="1">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>11661.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>11672.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>22386.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
         <v>22385.0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="1">
         <v>120.0</v>
       </c>
     </row>
@@ -1026,18 +1338,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1055,701 +1367,701 @@
     <row r="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2"/>
       <c r="B71" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2"/>
       <c r="B119" s="3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="5" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2"/>
       <c r="B157" s="3" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="11" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="11" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="11" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="5" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="5" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="5" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="5" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2"/>
       <c r="B230" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="5" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="5" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="5" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
+++ b/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\incodehq\vshcolab\module-work\src\main\java\org\incodehq\amberg\vshcolab\modules\work\fixture\viewmodel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Projekt" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Verfahren" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Bauobjekt" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Sheet5" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Pruefbericht" sheetId="5" r:id="rId7"/>
+    <sheet name="Projekt" sheetId="1" r:id="rId1"/>
+    <sheet name="Verfahren" sheetId="2" r:id="rId2"/>
+    <sheet name="Bauobjekt" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="4" r:id="rId4"/>
+    <sheet name="Pruefbericht" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="184">
   <si>
     <t>type</t>
   </si>
@@ -182,34 +190,7 @@
     <t>Warterzeit pro Stunde</t>
   </si>
   <si>
-    <t>Scalungsmiet 150er Wuerfel bis 6 Stk ie Einsatz</t>
-  </si>
-  <si>
-    <t>Ausschalen 150er Wuerfel bis 6 Stk ie Einstaz</t>
-  </si>
-  <si>
     <t>Arbeitsanweisung Seite 1/10 10 110 / 12 110 Würfeldruckfestigkeit</t>
-  </si>
-  <si>
-    <t>Einsatzbauschalem ab Flums</t>
-  </si>
-  <si>
-    <t>Einsatzbauschalem ab Regensdork</t>
-  </si>
-  <si>
-    <t>FBK Baustellenpraesenzzeit</t>
-  </si>
-  <si>
-    <t>BK-Entnahme, HZ am Objekt Mobilisation je Einsatz</t>
-  </si>
-  <si>
-    <t>BK-Entnahme Laboran inkl Geraete je Std</t>
-  </si>
-  <si>
-    <t>ME Mobilisations je Einsatz</t>
-  </si>
-  <si>
-    <t>ME Messungen &gt;=3 Messungen je Einsatz, je Stk</t>
   </si>
   <si>
     <t>10 110 / 12 110 WÜRFELDRUCKFESTIGKEIT</t>
@@ -599,47 +580,51 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="'ArialMT'"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="'Arial'"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="'Arial'"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="'SymbolMT'"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="'Arial'"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="'ArialMT'"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="'TimesNewRomanPS'"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="'ArialMT'"/>
     </font>
   </fonts>
@@ -648,7 +633,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -657,6 +642,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -671,88 +657,352 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="71.0"/>
-    <col customWidth="1" min="5" max="5" width="12.86"/>
-    <col customWidth="1" min="6" max="6" width="35.29"/>
-    <col customWidth="1" min="7" max="7" width="26.86"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,7 +1025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -791,7 +1041,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -806,25 +1056,26 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.43"/>
-    <col customWidth="1" min="3" max="3" width="13.71"/>
-    <col customWidth="1" min="4" max="4" width="107.0"/>
-    <col customWidth="1" min="6" max="7" width="17.14"/>
-    <col customWidth="1" min="21" max="21" width="53.71"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="107" customWidth="1"/>
+    <col min="6" max="7" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,9 +1099,9 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>13400.0</v>
+        <v>13400</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -860,152 +1111,152 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1">
-        <v>13400.0</v>
+        <v>13400</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="1">
-        <v>13412.0</v>
+        <v>13412</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>13414.0</v>
+        <v>13414</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>13416.0</v>
+        <v>13416</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>13418.0</v>
+        <v>13418</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>13421.0</v>
+        <v>13421</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>13423.0</v>
+        <v>13423</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>40</v>
@@ -1018,15 +1269,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="1">
-        <v>13424.0</v>
+        <v>13424</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>42</v>
@@ -1039,15 +1290,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>13426.0</v>
+        <v>13426</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>44</v>
@@ -1060,15 +1311,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>13425.0</v>
+        <v>13425</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>46</v>
@@ -1081,64 +1332,64 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>13430.0</v>
+        <v>13430</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="1">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>13434.0</v>
+        <v>13434</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>13410.0</v>
+        <v>13410</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="1">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>13440.0</v>
+        <v>13440</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>13400.0</v>
+        <v>13400</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>13441.0</v>
+        <v>13441</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>13440.0</v>
+        <v>13440</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
@@ -1148,195 +1399,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>13442.0</v>
+        <v>13442</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>13440.0</v>
+        <v>13440</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="1">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>13443.0</v>
+        <v>13443</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>13440.0</v>
+        <v>13440</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="1">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>13445.0</v>
+        <v>13445</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>13440.0</v>
+        <v>13440</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="1">
-        <v>110.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>11642.0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>11652.0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="1">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="1">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>13443.0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="1">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>11661.0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="1">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>11672.0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="1">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>22386.0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>22385.0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="1">
-        <v>120.0</v>
-      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1353,729 +1541,731 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A28" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15">
+      <c r="A42" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6" t="s">
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="6" t="s">
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
+    <row r="65" spans="1:2" ht="15">
+      <c r="A65" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="7" t="s">
+    <row r="67" spans="1:2" ht="15">
+      <c r="A67" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="6" t="s">
+    <row r="68" spans="1:2" ht="15">
+      <c r="A68" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="12.75">
       <c r="A70" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15">
       <c r="A71" s="2"/>
       <c r="B71" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15">
+      <c r="A73" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15">
+      <c r="A74" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15">
+      <c r="A76" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15">
+      <c r="A80" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15">
+      <c r="A82" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15">
+      <c r="A84" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15">
+      <c r="A86" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15">
+      <c r="A87" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="7" t="s">
+    <row r="89" spans="1:2" ht="15">
+      <c r="A89" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="12.75">
       <c r="A91" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15">
+      <c r="A94" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15">
+      <c r="A96" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15">
+      <c r="A98" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15">
+      <c r="A100" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15">
+      <c r="A104" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15">
+      <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="6" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="6" t="s">
+    <row r="114" spans="1:2" ht="15">
+      <c r="A114" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="6" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="118">
+    <row r="118" spans="1:2" ht="12.75">
       <c r="A118" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15">
       <c r="A119" s="2"/>
       <c r="B119" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15">
       <c r="A121" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15">
       <c r="A122" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15">
       <c r="A124" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15">
       <c r="A126" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15">
       <c r="A128" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15">
       <c r="A132" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15">
       <c r="A134" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="12.75">
       <c r="A136" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15">
+      <c r="A139" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15">
+      <c r="A141" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15">
+      <c r="A143" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15">
+      <c r="A145" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15">
+      <c r="A147" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15">
+      <c r="A148" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15">
+      <c r="A152" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="156">
+    <row r="156" spans="1:2" ht="12.75">
       <c r="A156" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15">
       <c r="A157" s="2"/>
       <c r="B157" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15">
+      <c r="A159" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15">
+      <c r="A161" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="14.25">
+      <c r="A163" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="14.25">
+      <c r="A164" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="14.25">
+      <c r="A165" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15">
+      <c r="A169" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15">
+      <c r="A171" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15">
+      <c r="A173" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="6" t="s">
+    <row r="175" spans="1:1" ht="15">
+      <c r="A175" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="10" t="s">
+    <row r="177" spans="1:2" ht="15">
+      <c r="A177" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="11" t="s">
+    <row r="179" spans="1:2" ht="15">
+      <c r="A179" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="11" t="s">
+    <row r="181" spans="1:2" ht="15">
+      <c r="A181" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="183">
+    <row r="183" spans="1:2" ht="12.75">
       <c r="A183" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15">
       <c r="A186" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="12.75">
       <c r="A188" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15">
+      <c r="A193" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15">
+      <c r="A195" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15">
+      <c r="A197" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15">
+      <c r="A199" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15">
+      <c r="A201" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15">
+      <c r="A203" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15">
+      <c r="A205" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15">
+      <c r="A207" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="5" t="s">
+    <row r="209" spans="1:1" ht="15">
+      <c r="A209" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="6" t="s">
+    <row r="211" spans="1:1" ht="15">
+      <c r="A211" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="7" t="s">
+    <row r="213" spans="1:1" ht="15">
+      <c r="A213" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="7" t="s">
+    <row r="215" spans="1:1" ht="15">
+      <c r="A215" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="7" t="s">
+    <row r="217" spans="1:1" ht="15">
+      <c r="A217" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="7" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="7" t="s">
+    <row r="221" spans="1:1">
+      <c r="A221" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="7" t="s">
+    <row r="223" spans="1:1" ht="15">
+      <c r="A223" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="7" t="s">
+    <row r="225" spans="1:2">
+      <c r="A225" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="7" t="s">
+    <row r="227" spans="1:2" ht="15">
+      <c r="A227" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="229">
+    <row r="229" spans="1:2" ht="12.75">
       <c r="A229" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15">
       <c r="A230" s="2"/>
       <c r="B230" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15">
+      <c r="A234" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15">
+      <c r="A236" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15">
+      <c r="A238" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15">
+      <c r="A244" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="15">
+      <c r="A246" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15">
+      <c r="A248" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="5" t="s">
+    <row r="250" spans="1:1" ht="15">
+      <c r="A250" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="6" t="s">
+    <row r="252" spans="1:1" ht="15">
+      <c r="A252" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="7" t="s">
+    <row r="254" spans="1:1" ht="15">
+      <c r="A254" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="256">
+    <row r="256" spans="1:1" ht="12.75">
       <c r="A256" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
+++ b/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Sheet5" sheetId="4" r:id="rId4"/>
     <sheet name="Pruefbericht" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -575,6 +575,21 @@
   </si>
   <si>
     <t> Stahlschenkel liegen bei der Bestimmung der Prüfkörperabmessungen nicht an (automatische Messstation)</t>
+  </si>
+  <si>
+    <t>normUnitOfMeasurement</t>
+  </si>
+  <si>
+    <t>NOT_APPLICABLE</t>
+  </si>
+  <si>
+    <t>LENGTH_IN_MM</t>
+  </si>
+  <si>
+    <t>DENSITY</t>
+  </si>
+  <si>
+    <t>PERCENTAGE</t>
   </si>
 </sst>
 </file>
@@ -663,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -676,6 +691,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,7 +1009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1057,6 +1076,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1064,14 +1084,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="107" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" customWidth="1"/>
     <col min="6" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1097,6 +1120,9 @@
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H1" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
@@ -1110,6 +1136,7 @@
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="1">
@@ -1124,6 +1151,7 @@
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="1">
@@ -1144,6 +1172,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
@@ -1151,6 +1182,9 @@
       <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H5" s="13" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="1">
@@ -1171,6 +1205,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
@@ -1178,12 +1215,18 @@
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H7" s="13" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H8" s="13" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="1">
@@ -1205,6 +1248,9 @@
       <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H9" s="13" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="1">
@@ -1226,6 +1272,9 @@
       <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H10" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="1">
@@ -1247,6 +1296,9 @@
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="H11" s="13" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="1">
@@ -1268,6 +1320,9 @@
       <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H12" s="13" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="1">
@@ -1289,6 +1344,9 @@
       <c r="G13" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H13" s="13" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
@@ -1310,6 +1368,9 @@
       <c r="G14" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="H14" s="13" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="1">
@@ -1330,6 +1391,9 @@
       </c>
       <c r="G15" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
@@ -1513,6 +1577,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1559,7 +1624,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -1619,7 +1684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" ht="15">
       <c r="A26" s="8" t="s">
         <v>68</v>
       </c>

--- a/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
+++ b/module-work/src/main/java/org/incodehq/amberg/vshcolab/modules/work/fixture/viewmodel/VSH Sample data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="193">
   <si>
     <t>type</t>
   </si>
@@ -580,9 +580,6 @@
     <t>normUnitOfMeasurement</t>
   </si>
   <si>
-    <t>NOT_APPLICABLE</t>
-  </si>
-  <si>
     <t>LENGTH_IN_MM</t>
   </si>
   <si>
@@ -590,13 +587,28 @@
   </si>
   <si>
     <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Project definition</t>
+  </si>
+  <si>
+    <t>Project report</t>
+  </si>
+  <si>
+    <t>RATIO</t>
+  </si>
+  <si>
+    <t>TIME_IN_SEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -642,6 +654,12 @@
       <sz val="11"/>
       <name val="'ArialMT'"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -651,7 +669,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -674,11 +692,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -693,6 +726,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1138,7 +1177,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="1">
         <v>13410</v>
       </c>
@@ -1153,7 +1192,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="1">
         <v>13412</v>
       </c>
@@ -1173,20 +1212,20 @@
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H4" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H5" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="1">
         <v>13414</v>
       </c>
@@ -1206,29 +1245,29 @@
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H6" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H7" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H8" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="1">
         <v>13416</v>
       </c>
@@ -1248,11 +1287,11 @@
       <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H9" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="1">
         <v>13418</v>
       </c>
@@ -1272,11 +1311,11 @@
       <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H10" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="1">
         <v>13421</v>
       </c>
@@ -1296,11 +1335,11 @@
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="1">
         <v>13423</v>
       </c>
@@ -1320,11 +1359,11 @@
       <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H12" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A13" s="1">
         <v>13424</v>
       </c>
@@ -1344,11 +1383,11 @@
       <c r="G13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H13" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="1">
         <v>13426</v>
       </c>
@@ -1368,11 +1407,11 @@
       <c r="G14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H14" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="1">
         <v>13425</v>
       </c>
@@ -1392,8 +1431,8 @@
       <c r="G15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>185</v>
+      <c r="H15" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
@@ -1497,7 +1536,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="1">
         <v>13445</v>
       </c>
@@ -1514,18 +1553,34 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="14">
+        <v>1</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="14">
+        <v>99999</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
